--- a/Python Challenge/PyBank/budget_data start up.xlsx
+++ b/Python Challenge/PyBank/budget_data start up.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonof\UCSDProjects\python-challenge\Python Challenge\PyBank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{474B88DD-1A62-47B6-8071-C7CDAB99B9F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05151E0E-A8E9-4ACD-9805-7BC109BFD3F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12945" yWindow="1995" windowWidth="12630" windowHeight="11460" activeTab="1"/>
+    <workbookView xWindow="-24555" yWindow="180" windowWidth="23310" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="3" r:id="rId1"/>
     <sheet name="budget_data" sheetId="1" r:id="rId2"/>
     <sheet name="Instructions" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -118,12 +118,21 @@
   </si>
   <si>
     <t>Minimum of (changes)</t>
+  </si>
+  <si>
+    <t>CountMonth = CountMonth + 1</t>
+  </si>
+  <si>
+    <t>CountMonth = []</t>
+  </si>
+  <si>
+    <t>Len</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -680,25 +689,7 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -716,7 +707,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Amir Vazquez" refreshedDate="44171.573851388886" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="87">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Amir Vazquez" refreshedDate="44171.573851388886" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="87" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:B1048576" sheet="budget_data"/>
   </cacheSource>
@@ -1227,7 +1218,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0">
@@ -1296,7 +1287,7 @@
     <dataField name="Sum of Profit/Losses" fld="1" baseField="0" baseItem="0" numFmtId="43"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -1614,11 +1605,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1673,11 +1664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1688,7 +1679,7 @@
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1702,7 +1693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>40179</v>
       </c>
@@ -1715,7 +1706,7 @@
         <v>-2315.1176470588234</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>40210</v>
       </c>
@@ -1731,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>40238</v>
       </c>
@@ -1751,7 +1742,7 @@
         <v>1926159</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>40269</v>
       </c>
@@ -1771,7 +1762,7 @@
         <v>-2196167</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>40299</v>
       </c>
@@ -1786,8 +1777,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>40330</v>
       </c>
@@ -1803,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>40360</v>
       </c>
@@ -1818,8 +1812,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>40391</v>
       </c>
@@ -1835,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>40422</v>
       </c>
@@ -1851,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>40452</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>40483</v>
       </c>
@@ -1883,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>40513</v>
       </c>
@@ -1899,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>40544</v>
       </c>
@@ -1915,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>40575</v>
       </c>
@@ -1931,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>40603</v>
       </c>
@@ -3089,11 +3092,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" activeCellId="1" sqref="B13 B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
